--- a/Data/Memoli.xlsx
+++ b/Data/Memoli.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{7E127BD8-5C17-420D-A6B9-31ACAE01DDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5086CFA-3A1D-4BD7-9D16-8F6BE1A98DF7}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{7E127BD8-5C17-420D-A6B9-31ACAE01DDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11F19734-3E9B-4DEA-BE11-499E9BBF2DB5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{5E827E76-6625-47FF-8BB1-49D1DDE9ED7B}"/>
+    <workbookView xWindow="-15645" yWindow="2115" windowWidth="12225" windowHeight="11835" xr2:uid="{5E827E76-6625-47FF-8BB1-49D1DDE9ED7B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>V</t>
   </si>
@@ -47,7 +47,28 @@
     <t>VOLUNTEER</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t>GCSF</t>
+  </si>
+  <si>
+    <t>IFNG</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>TNFA</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>2016LoHAI</t>
+  </si>
+  <si>
+    <t>2016HiHAI</t>
+  </si>
+  <si>
+    <t>2015Mean</t>
   </si>
 </sst>
 </file>
@@ -471,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2F975C-5CF1-4CD9-BB4F-3E47C9479E82}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -489,10 +510,25 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -500,10 +536,25 @@
       <c r="C2" s="1">
         <v>160.8773852430167</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>2.07214710083425</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.8787231309594017</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.83520630659662332</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.3160853443758567</v>
+      </c>
+      <c r="H2">
+        <v>0.114293580562431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -511,10 +562,25 @@
       <c r="C3" s="3">
         <v>3082.6881368352124</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>2.0925756194889131</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.9180116497471442</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.97285842091697461</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.3224607408897178</v>
+      </c>
+      <c r="H3">
+        <v>0.58277995074171596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -522,10 +588,13 @@
       <c r="C4" s="3">
         <v>16880.13218681989</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1.8232716956400701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -533,10 +602,25 @@
       <c r="C5" s="1">
         <v>16906.325480665259</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>2.1704207543291636</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.7665154267369445</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.99234476666539417</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.5689442921407151</v>
+      </c>
+      <c r="H5">
+        <v>3.49150548993437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -544,10 +628,13 @@
       <c r="C6" s="1">
         <v>1948.7584048508834</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>3.6574364744715799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -555,10 +642,25 @@
       <c r="C7" s="1">
         <v>47481.233646657769</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>1.8875998384572792</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.6309935214254174</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.99124375149873178</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.4213580892700912</v>
+      </c>
+      <c r="H7">
+        <v>3.42700586849893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -566,10 +668,13 @@
       <c r="C8" s="3">
         <v>2401.9275036040444</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>2.1115822801856599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -577,10 +682,13 @@
       <c r="C9" s="3">
         <v>1274.9864685107586</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1.8289696160786599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -588,15 +696,208 @@
       <c r="C10" s="1">
         <v>267.9401851121255</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0.67005030569462798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.60651430315689803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1122.948171278714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4515.192378428178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
+      <c r="C14">
+        <v>14397.045636220895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>19398.573030675019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9053.8757952982342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1240.2955338330044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>541.7675012235203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5417.6750122352041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>43.680516977211418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>248.704391122673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6083.7682475720385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>139.27876015629599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>187.6641408787614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>13.927876015629595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Data/Memoli.xlsx
+++ b/Data/Memoli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{7E127BD8-5C17-420D-A6B9-31ACAE01DDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11F19734-3E9B-4DEA-BE11-499E9BBF2DB5}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{7E127BD8-5C17-420D-A6B9-31ACAE01DDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC195D5-99BB-41B0-83E0-FE8516DE4C10}"/>
   <bookViews>
-    <workbookView xWindow="-15645" yWindow="2115" windowWidth="12225" windowHeight="11835" xr2:uid="{5E827E76-6625-47FF-8BB1-49D1DDE9ED7B}"/>
+    <workbookView xWindow="-13890" yWindow="4665" windowWidth="12225" windowHeight="11835" xr2:uid="{5E827E76-6625-47FF-8BB1-49D1DDE9ED7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t>V</t>
   </si>
@@ -47,28 +47,7 @@
     <t>VOLUNTEER</t>
   </si>
   <si>
-    <t>GCSF</t>
-  </si>
-  <si>
-    <t>IFNG</t>
-  </si>
-  <si>
-    <t>IL6</t>
-  </si>
-  <si>
-    <t>TNFA</t>
-  </si>
-  <si>
-    <t>TSS</t>
-  </si>
-  <si>
-    <t>2016LoHAI</t>
-  </si>
-  <si>
-    <t>2016HiHAI</t>
-  </si>
-  <si>
-    <t>2015Mean</t>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -143,11 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -492,217 +469,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2F975C-5CF1-4CD9-BB4F-3E47C9479E82}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>160.8773852430167</v>
       </c>
-      <c r="D2" s="3">
-        <v>2.07214710083425</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.8787231309594017</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.83520630659662332</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.3160853443758567</v>
-      </c>
-      <c r="H2">
-        <v>0.114293580562431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>3082.6881368352124</v>
       </c>
-      <c r="D3" s="1">
-        <v>2.0925756194889131</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.9180116497471442</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.97285842091697461</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.3224607408897178</v>
-      </c>
-      <c r="H3">
-        <v>0.58277995074171596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>16880.13218681989</v>
       </c>
-      <c r="H4">
-        <v>1.8232716956400701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>16906.325480665259</v>
       </c>
-      <c r="D5" s="3">
-        <v>2.1704207543291636</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.7665154267369445</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.99234476666539417</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.5689442921407151</v>
-      </c>
-      <c r="H5">
-        <v>3.49150548993437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>1948.7584048508834</v>
       </c>
-      <c r="H6">
-        <v>3.6574364744715799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>47481.233646657769</v>
       </c>
-      <c r="D7" s="3">
-        <v>1.8875998384572792</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.6309935214254174</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.99124375149873178</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.4213580892700912</v>
-      </c>
-      <c r="H7">
-        <v>3.42700586849893</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>2401.9275036040444</v>
       </c>
-      <c r="H8">
-        <v>2.1115822801856599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>1274.9864685107586</v>
       </c>
-      <c r="H9">
-        <v>1.8289696160786599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>267.9401851121255</v>
       </c>
-      <c r="H10">
-        <v>0.67005030569462798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -710,196 +602,19 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0.60651430315689803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1122.948171278714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4515.192378428178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>14397.045636220895</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>19398.573030675019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9053.8757952982342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>1240.2955338330044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2">
-        <v>541.7675012235203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5417.6750122352041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>43.680516977211418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>248.704391122673</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>6083.7682475720385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>139.27876015629599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>187.6641408787614</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>13.927876015629595</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Memoli.xlsx
+++ b/Data/Memoli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{7E127BD8-5C17-420D-A6B9-31ACAE01DDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC195D5-99BB-41B0-83E0-FE8516DE4C10}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{7E127BD8-5C17-420D-A6B9-31ACAE01DDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E5EF4E-A135-4DDB-A260-706D3B00E991}"/>
   <bookViews>
-    <workbookView xWindow="-13890" yWindow="4665" windowWidth="12225" windowHeight="11835" xr2:uid="{5E827E76-6625-47FF-8BB1-49D1DDE9ED7B}"/>
+    <workbookView xWindow="-16320" yWindow="-1920" windowWidth="16440" windowHeight="29040" xr2:uid="{5E827E76-6625-47FF-8BB1-49D1DDE9ED7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>V</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>TSSsem</t>
+  </si>
+  <si>
+    <t>Vsem</t>
   </si>
 </sst>
 </file>
@@ -122,13 +131,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -469,15 +484,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2F975C-5CF1-4CD9-BB4F-3E47C9479E82}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -487,134 +502,267 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>160.8773852430167</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="D3">
+        <v>85.040464517059007</v>
+      </c>
+      <c r="E3">
+        <v>1.2699286729158999E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>3082.6881368352124</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="D4">
+        <v>3032.6136316789798</v>
+      </c>
+      <c r="E4">
+        <v>6.4753327860190668E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>16880.13218681989</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="D5">
+        <v>14347.04858404844</v>
+      </c>
+      <c r="E5">
+        <v>0.20258574396000778</v>
+      </c>
+      <c r="F5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>16906.325480665259</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
+      <c r="D6">
+        <v>10719.95141534094</v>
+      </c>
+      <c r="E6">
+        <v>0.38794505443715221</v>
+      </c>
+      <c r="F6">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1948.7584048508834</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
+      <c r="D7">
+        <v>1757.0949370938629</v>
+      </c>
+      <c r="E7">
+        <v>0.40638183049684223</v>
+      </c>
+      <c r="F7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>47481.233646657769</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
+      <c r="D8">
+        <v>41566.8011068005</v>
+      </c>
+      <c r="E8">
+        <v>0.38077842983321442</v>
+      </c>
+      <c r="F8">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2401.9275036040444</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
+      <c r="D9">
+        <v>2105.7006838972402</v>
+      </c>
+      <c r="E9">
+        <v>0.23462025335396219</v>
+      </c>
+      <c r="F9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1274.9864685107586</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
+      <c r="D10">
+        <v>1181.8170642586369</v>
+      </c>
+      <c r="E10">
+        <v>0.2032188462309622</v>
+      </c>
+      <c r="F10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>267.9401851121255</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
+      <c r="D11">
+        <v>141.0909729654885</v>
+      </c>
+      <c r="E11">
+        <v>7.4450033966069779E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>8.8551171337998493</v>
+      </c>
+      <c r="E12">
+        <v>6.7390478128544221E-2</v>
+      </c>
+      <c r="F12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2.9031928770674113E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Memoli.xlsx
+++ b/Data/Memoli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{7E127BD8-5C17-420D-A6B9-31ACAE01DDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E5EF4E-A135-4DDB-A260-706D3B00E991}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{7E127BD8-5C17-420D-A6B9-31ACAE01DDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFFED313-F2CE-4935-B4F8-9FC822F0E674}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-1920" windowWidth="16440" windowHeight="29040" xr2:uid="{5E827E76-6625-47FF-8BB1-49D1DDE9ED7B}"/>
+    <workbookView xWindow="11595" yWindow="2460" windowWidth="16140" windowHeight="11835" xr2:uid="{5E827E76-6625-47FF-8BB1-49D1DDE9ED7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
     <t>TSS</t>
   </si>
   <si>
-    <t>TSSsem</t>
+    <t>Vstd</t>
   </si>
   <si>
-    <t>Vsem</t>
+    <t>TSSstd</t>
   </si>
 </sst>
 </file>
@@ -161,10 +161,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,13 +499,13 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -543,13 +539,13 @@
         <v>160.8773852430167</v>
       </c>
       <c r="D3">
-        <v>85.040464517059007</v>
+        <v>4.25202322585295</v>
       </c>
       <c r="E3">
         <v>1.2699286729158999E-2</v>
       </c>
       <c r="F3">
-        <v>1.2999999999999999E-2</v>
+        <v>5.8137767414994532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -563,13 +559,13 @@
         <v>3082.6881368352124</v>
       </c>
       <c r="D4">
-        <v>3032.6136316789798</v>
+        <v>151.63068158394898</v>
       </c>
       <c r="E4">
         <v>6.4753327860190668E-2</v>
       </c>
       <c r="F4">
-        <v>2.4E-2</v>
+        <v>0.10733126291998991</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -583,13 +579,13 @@
         <v>16880.13218681989</v>
       </c>
       <c r="D5">
-        <v>14347.04858404844</v>
+        <v>717.35242920242183</v>
       </c>
       <c r="E5">
         <v>0.20258574396000778</v>
       </c>
       <c r="F5">
-        <v>5.8000000000000003E-2</v>
+        <v>0.25938388538997564</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -603,13 +599,13 @@
         <v>16906.325480665259</v>
       </c>
       <c r="D6">
-        <v>10719.95141534094</v>
+        <v>535.99757076704702</v>
       </c>
       <c r="E6">
         <v>0.38794505443715221</v>
       </c>
       <c r="F6">
-        <v>8.6999999999999994E-2</v>
+        <v>0.38907582808496338</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,13 +619,13 @@
         <v>1948.7584048508834</v>
       </c>
       <c r="D7">
-        <v>1757.0949370938629</v>
+        <v>87.854746854693147</v>
       </c>
       <c r="E7">
         <v>0.40638183049684223</v>
       </c>
       <c r="F7">
-        <v>8.2000000000000003E-2</v>
+        <v>0.36671514830996554</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -643,13 +639,13 @@
         <v>47481.233646657769</v>
       </c>
       <c r="D8">
-        <v>41566.8011068005</v>
+        <v>2078.3400553400247</v>
       </c>
       <c r="E8">
         <v>0.38077842983321442</v>
       </c>
       <c r="F8">
-        <v>7.6999999999999999E-2</v>
+        <v>0.34435446853496765</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,13 +659,13 @@
         <v>2401.9275036040444</v>
       </c>
       <c r="D9">
-        <v>2105.7006838972402</v>
+        <v>105.28503419486199</v>
       </c>
       <c r="E9">
         <v>0.23462025335396219</v>
       </c>
       <c r="F9">
-        <v>5.8000000000000003E-2</v>
+        <v>0.25938388538997564</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,13 +679,13 @@
         <v>1274.9864685107586</v>
       </c>
       <c r="D10">
-        <v>1181.8170642586369</v>
+        <v>59.09085321293184</v>
       </c>
       <c r="E10">
         <v>0.2032188462309622</v>
       </c>
       <c r="F10">
-        <v>0.06</v>
+        <v>0.26832815729997478</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,13 +699,13 @@
         <v>267.9401851121255</v>
       </c>
       <c r="D11">
-        <v>141.0909729654885</v>
+        <v>7.0545486482744248</v>
       </c>
       <c r="E11">
         <v>7.4450033966069779E-2</v>
       </c>
       <c r="F11">
-        <v>3.7999999999999999E-2</v>
+        <v>0.16994116628998401</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.8551171337998493</v>
+        <v>0.4427558566899924</v>
       </c>
       <c r="E12">
         <v>6.7390478128544221E-2</v>
       </c>
       <c r="F12">
-        <v>6.6000000000000003E-2</v>
+        <v>0.2951609730299723</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,7 +745,7 @@
         <v>2.9031928770674113E-2</v>
       </c>
       <c r="F13">
-        <v>0.02</v>
+        <v>8.9442719099991588E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
